--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2508.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2508.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.7892952533992</v>
+        <v>1.614754438400269</v>
       </c>
       <c r="B1">
-        <v>4.085550898879075</v>
+        <v>2.771294355392456</v>
       </c>
       <c r="C1">
-        <v>2.794770327440222</v>
+        <v>3.226843118667603</v>
       </c>
       <c r="D1">
-        <v>2.412811123637794</v>
+        <v>3.60989236831665</v>
       </c>
       <c r="E1">
-        <v>2.922548448410322</v>
+        <v>1.538814663887024</v>
       </c>
     </row>
   </sheetData>
